--- a/data/financial_statements/sofp/RTX.xlsx
+++ b/data/financial_statements/sofp/RTX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,2503 +605,2560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>6220000000</v>
+      </c>
+      <c r="C2">
         <v>5381000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4767000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6040000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7832000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7476000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8051000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8579000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8802000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10001000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6975000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8001000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4937000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>7341000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6819000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6240000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>6152000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>13799000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>11068000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7667000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>8985000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>8523000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>9345000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>7156000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>7157000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>7107000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>6785000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>7215000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>7075000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5477000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5933000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5281000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5229000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5035000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4962000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4477000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>4619000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4621000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4909000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4767000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>9108000000</v>
+      </c>
+      <c r="C3">
         <v>9233000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10394000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9076000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>9661000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9538000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8912000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10037000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9254000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10115000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9496000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>13104000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>8743000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>13607000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13695000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>13574000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>14271000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>12550000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>11973000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>11699000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>12595000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>13128000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>12597000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>11840000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>11481000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>11500000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>11544000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>10899000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>10653000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>10647000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>11516000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>11512000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>10448000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>11080000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>11795000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>11537000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>11458000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>11135000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>11158000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>10791000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>10617000000</v>
+      </c>
+      <c r="C4">
         <v>10443000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>10142000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9749000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9178000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9426000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9548000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9498000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9411000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9843000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10256000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>11506000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>9047000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>11242000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>10934000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>10474000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>10083000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9068000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>8979000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>8938000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>9881000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>10083000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>9860000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>9386000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8704000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>9081000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>8747000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>8507000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>8135000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8453000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>10295000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>10336000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>7642000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>10341000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>9896000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>10992000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>10330000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>10765000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>10232000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>10161000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>16498000000</v>
+      </c>
+      <c r="C5">
         <v>16764000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>16159000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>15875000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15379000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15552000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>14368000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>14438000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15909000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13496000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>15412000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6264000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7027000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>5626000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>5610000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5114000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4997000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4787000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4536000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4437000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1397000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1229000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1027000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>923000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1208000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>860000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>894000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>906000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>843000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>5785000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>983000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>936000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>6241000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>966000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>992000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>892000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1071000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>895000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>902000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1788000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>42443000000</v>
+      </c>
+      <c r="C6">
         <v>41821000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>41462000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>40740000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>42050000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>41992000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>40879000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>42552000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>43376000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>43511000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>42274000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>38875000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>61577000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>37816000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>37058000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>35402000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>35503000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>40204000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>36556000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>32741000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>32858000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>32963000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>32829000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>29305000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>28550000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>28548000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>27970000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>27527000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>26706000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>32359000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>30669000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>29958000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>31483000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>29411000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>29641000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>29820000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>29442000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>29351000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>28790000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>29161000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>15170000000</v>
+      </c>
+      <c r="C7">
         <v>14668000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>14741000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>14837000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14972000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>14517000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>14665000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>14742000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>14962000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>14730000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>14805000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>12484000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10322000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>12200000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>12292000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>12210000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>12297000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>10236000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>10115000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>10283000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>10186000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>9763000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>9475000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>9255000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>9158000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8989000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>8911000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>8763000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>8732000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>8515000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>9266000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>9175000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>8592000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>9182000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>9026000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>8895000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>8866000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>8549000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>8399000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>8428000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>54000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>65000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>41000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>21000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>26000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>37000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>30000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>31000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>42000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>70000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>60000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>2603000000</v>
+      </c>
+      <c r="C9">
         <v>2618000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2675000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2766000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2848000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2960000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3063000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3079000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3144000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3314000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3363000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3496000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3463000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3372000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3293000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3182000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3023000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3143000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2763000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2522000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2372000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2184000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1701000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1593000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1398000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1077000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1000000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>967000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1018000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1008000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1037000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>993000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>958000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1081000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1098000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1105000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1156000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1229000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1147000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1105000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>90663000000</v>
+      </c>
+      <c r="C10">
         <v>90214000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>91368000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>92434000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>92952000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>92631000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>93917000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>94264000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>94824000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>95088000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>95272000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>73081000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>61082000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>73727000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>74321000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>74672000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>74536000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>43380000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>43438000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>44334000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>43793000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>43871000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>43468000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>43053000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>42743000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>43222000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>43377000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>43127000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>42904000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>42926000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>43639000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>43128000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>42976000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>43853000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>44093000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>43744000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>43689000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>43595000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>43136000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>42641000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11">
         <v>699000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>732000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1444000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>884000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1699000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1712000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1703000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1646000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1701000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1626000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1763000000</v>
-      </c>
-      <c r="U11">
-        <v>1723000000</v>
       </c>
       <c r="V11">
         <v>1723000000</v>
       </c>
       <c r="W11">
+        <v>1723000000</v>
+      </c>
+      <c r="X11">
         <v>1817000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1804000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1809000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1765000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1812000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1905000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1961000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1341000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1378000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1462000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1491000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1223000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1273000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1237000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1236000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1583000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1596000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1552000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>6156000000</v>
+      </c>
+      <c r="C12">
         <v>7102000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>6905000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>6678000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6624000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4796000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4414000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4058000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3967000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3030000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2969000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>7568000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1919000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>7639000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>7574000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>7678000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>7206000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>16275000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>7071000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>7136000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>5988000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>5848000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5503000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>5363000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>6048000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>6461000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>6410000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>6282000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>6163000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>5986000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>6784000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>6611000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>5706000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>7024000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>7011000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>6428000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>6205000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>6019000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>5676000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>5626000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>116421000000</v>
+      </c>
+      <c r="C13">
         <v>116404000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>117555000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>118626000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>119354000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>116780000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>117959000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>118056000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>118777000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>118888000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>119243000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>100697000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>78038000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>101193000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>101932000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>101978000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>98708000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>74735000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>65013000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>66038000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>64062000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>63389000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>61964000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>61068000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>61156000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>61514000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>61510000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>61044000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>60778000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>59776000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>62104000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>61369000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>59723000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>62363000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>62501000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>61409000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>61152000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>60975000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>59954000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>59352000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>158864000000</v>
+      </c>
+      <c r="C14">
         <v>158225000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>159017000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>159366000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>161404000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>158772000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>158838000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>160608000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>162153000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>162399000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>161517000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>139572000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>139615000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>139009000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>138990000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>137380000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>134211000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>114939000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>101569000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>98779000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>96920000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>96352000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>94793000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>90373000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>89706000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>90062000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>89480000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>88571000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>87484000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>92135000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>92773000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>91327000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>91206000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>91774000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>92142000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>91229000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>90594000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>90326000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>88744000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>88513000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>9896000000</v>
+      </c>
+      <c r="C15">
         <v>9017000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>9732000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>8270000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8751000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8667000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8043000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>9182000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8639000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8143000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>7182000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>10976000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>7816000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>10840000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>11109000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>10364000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>11080000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>10509000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>9623000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>8875000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>9579000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>8999000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>8542000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>7520000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>7483000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>7432000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>7242000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>6579000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>6875000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>6333000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>7153000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>6929000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>6250000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>7046000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>7297000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>6949000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>6965000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>6628000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>6645000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>6192000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>13400000000</v>
+      </c>
+      <c r="C16">
         <v>13600000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>14487000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>12884000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12820000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>12441000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12594000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12695000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>13523000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>13558000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>14253000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>11055000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>9770000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>11672000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>10753000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>10750000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10223000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>8867000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>8730000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>7951000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>12316000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>13053000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>12634000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>12522000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>12219000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>12634000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>12534000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>12581000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>14638000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>11875000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>13622000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>14616000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>12527000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>14721000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>14798000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>15678000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>15335000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>15488000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>15238000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>14854000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>1220000000</v>
+      </c>
+      <c r="C17">
         <v>2388000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>139000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>164000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>158000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>480000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1566000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1603000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>797000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1535000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1540000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3087000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5551000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>6822000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>7341000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4182000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>4345000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1668000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1063000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2194000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>2496000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3197000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>2743000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3684000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2204000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2475000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2407000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1363000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1105000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>3239000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2954000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>4184000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1917000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>2141000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>2235000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>304000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>500000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1403000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1281000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1252000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>14598000000</v>
+      </c>
+      <c r="C18">
         <v>13368000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>13430000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>13739000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>13720000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>12543000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>12591000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12879000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>12889000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>12208000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>11997000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>6384000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>9014000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>6233000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6219000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>6107000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>5720000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>5460000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>5652000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>5727000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2242000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2781000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>261000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>39114000000</v>
+      </c>
+      <c r="C19">
         <v>38373000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>37788000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>35057000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>35449000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>34131000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>34794000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>36359000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>35848000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>35562000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>35291000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>31502000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>46594000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>35567000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>35422000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>31403000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>31368000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>26504000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>25068000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>24747000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>24391000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>25249000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>23919000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>23726000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>21906000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>22541000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>22183000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>20523000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>22618000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>23689000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>23729000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>25729000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>23475000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>23908000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>24330000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>22931000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>22800000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>23519000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>23164000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>22559000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>30694000000</v>
+      </c>
+      <c r="C20">
         <v>31059000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>31274000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>31308000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>31327000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>30768000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>29916000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>29935000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>31026000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>31246000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>31210000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>43232000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>37701000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>37782000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>37910000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>41004000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>41192000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>38275000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>27246000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>25153000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>24989000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>24063000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>23883000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>20898000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>21697000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>20190000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>20130000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>21688000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>19320000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>19428000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>19489000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>17809000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>17784000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>17857000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>17837000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>19739000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>19741000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>19785000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>20375000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>21572000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21">
         <v>120000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>111000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>5554000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>5732000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>4807000000</v>
+      </c>
+      <c r="C22">
         <v>7362000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>7543000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7709000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7855000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9742000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9929000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>9808000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10342000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>14688000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>14972000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3225000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2487000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>3855000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3663000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3846000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>4018000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2412000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2589000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2847000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>3036000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>3227000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>5249000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>5433000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>5612000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>5552000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>5713000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>5869000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>6022000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>6235000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>6373000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>6494000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>6681000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3033000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>3207000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3320000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3444000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>7175000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>7231000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>7358000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23">
         <v>153000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-65000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-699000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-732000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-1444000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-1557000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>36000000</v>
+      </c>
+      <c r="C24">
         <v>33000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>38000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>36000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>35000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>32000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>30000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>34000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>32000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>30000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>35000000</v>
-      </c>
-      <c r="L24">
-        <v>95000000</v>
       </c>
       <c r="M24">
         <v>95000000</v>
       </c>
       <c r="N24">
+        <v>95000000</v>
+      </c>
+      <c r="O24">
         <v>107000000</v>
-      </c>
-      <c r="O24">
-        <v>109000000</v>
       </c>
       <c r="P24">
         <v>109000000</v>
@@ -2996,1780 +3167,1819 @@
         <v>109000000</v>
       </c>
       <c r="R24">
+        <v>109000000</v>
+      </c>
+      <c r="S24">
         <v>125000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>130000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>135000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>131000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>429000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>406000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>307000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>296000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>315000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>314000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>127000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>122000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>132000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>134000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>135000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>140000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>141000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>146000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>137000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>111000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>124000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>174000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>255000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>8449000000</v>
+      </c>
+      <c r="C25">
         <v>8124000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>8791000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>9643000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>10417000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>9621000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>9885000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>9612000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>9537000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>9142000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>9394000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>17457000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>7414000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>16774000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>16651000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>17052000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>16914000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>13373000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>13190000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>13405000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>12952000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>11693000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>11181000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>10737000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>11026000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>10700000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>10492000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>10461000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>10558000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>10600000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>11110000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>10993000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10562000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>11446000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>11429000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>11407000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>11279000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>9804000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>9431000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>9206000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>45572000000</v>
+      </c>
+      <c r="C26">
         <v>48117000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>49239000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>50323000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>51291000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>51704000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>51323000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>50941000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>52453000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>56757000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>57334000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>66135000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>48790000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>60623000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>60591000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>64031000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>62233000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>54185000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>43155000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>41540000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>41108000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>39412000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>40719000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>37375000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>38631000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>36757000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>36649000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>38145000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>36022000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>36395000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>37106000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>35431000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>35167000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>32477000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>32619000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>34603000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>34575000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>36888000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>37211000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>38391000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>84686000000</v>
+      </c>
+      <c r="C27">
         <v>86490000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>87027000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>85380000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>86740000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>85835000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>86117000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>87300000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>88301000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>92319000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>92625000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>97637000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>95384000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>96190000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>96013000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>95434000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>93601000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>80689000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>68223000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>66287000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>65499000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>64661000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>64638000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>61101000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>60537000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>59298000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>58832000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>58668000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>58640000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>60084000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>60835000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>61160000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>58642000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>56385000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>56949000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>57534000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>57375000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>60407000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>60375000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>60950000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>37911000000</v>
+      </c>
+      <c r="C28">
         <v>37829000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>37673000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>37504000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>37483000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>37343000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>37183000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>36997000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>36930000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>36833000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>36735000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>23099000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>23019000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>22873000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>22718000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>22564000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>22514000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>17869000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>17747000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>17641000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>17574000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>17486000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>17372000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>17359000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>17285000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>17213000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>16341000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>16256000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>16033000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>16731000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>15141000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>15032000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>15300000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>15187000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>15060000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>14937000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>14764000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>14665000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>14398000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>14221000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>52269000000</v>
+      </c>
+      <c r="C29">
         <v>51652000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>50271000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>50592000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>50265000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>50343000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>48954000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>49460000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>49423000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>50017000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>49744000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>60826000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>61594000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>61069000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>60548000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>59279000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>57823000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>57706000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>57027000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>55533000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>55242000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>55385000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>54640000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>53741000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>52873000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>52384000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>51451000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>50625000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>49956000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>47236000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>46443000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>45462000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>44611000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>43668000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>42343000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>41205000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>40539000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>39599000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>38629000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>37551000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>15530000000</v>
+      </c>
+      <c r="C30">
         <v>15141000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>14539000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>13483000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>12727000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>12398000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>11424000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>10780000000</v>
-      </c>
-      <c r="I30">
-        <v>10407000000</v>
       </c>
       <c r="J30">
         <v>10407000000</v>
       </c>
       <c r="K30">
+        <v>10407000000</v>
+      </c>
+      <c r="L30">
         <v>10398000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>32665000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>32626000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>32588000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>32549000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>32511000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>32482000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>35667000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>35645000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>35619000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>35596000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>35575000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>35516000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>35080000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>34150000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>32584000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>31118000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>31082000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>30907000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>25946000000</v>
-      </c>
-      <c r="AE30">
-        <v>24520000000</v>
       </c>
       <c r="AF30">
         <v>24520000000</v>
       </c>
       <c r="AG30">
+        <v>24520000000</v>
+      </c>
+      <c r="AH30">
         <v>21922000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>21519000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>21094000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>20760000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>20431000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>20233000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>19908000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>19575000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-31000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-33000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-36000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-38000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-41000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-43000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-46000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-49000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-52000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-56000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-61000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-64000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-67000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-71000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-75000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-76000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-79000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-81000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-84000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-85000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-88000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-90000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-93000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-95000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-97000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-100000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-102000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-105000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-108000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-110000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-113000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-115000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-118000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-121000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-124000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-126000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-129000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-132000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-136000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>74178000000</v>
+      </c>
+      <c r="C32">
         <v>71735000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>71990000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>73986000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>74664000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>72937000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>72721000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>73308000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>73852000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>70080000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>68892000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>41935000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>44231000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>42819000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>42977000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>41946000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>40610000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>34250000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>33346000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>32492000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>31421000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>31691000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>30155000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>29272000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>29169000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>30764000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>30648000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>29903000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>28844000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>32051000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>31938000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>30167000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>32564000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>35389000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>35193000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>33695000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>33219000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>29919000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>28369000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>27563000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>74178000000</v>
+      </c>
+      <c r="C33">
         <v>71735000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>71990000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>73986000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>74664000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>72937000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>72721000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>73308000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>73852000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>70080000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>68892000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>41935000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>44231000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>42819000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>42977000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>41946000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>40610000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>34250000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>33346000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>32492000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>31421000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>31691000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>30155000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>29272000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>29169000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>30764000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>30648000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>29903000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>28844000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>32051000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>31938000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>30167000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>32564000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>35389000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>35193000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>33695000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>33219000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>29919000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>28369000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>27563000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>158864000000</v>
+      </c>
+      <c r="C34">
         <v>158225000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>159017000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>159366000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>161404000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>158772000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>158838000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>160608000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>162153000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>162399000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>161517000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>139572000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>139615000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>139009000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>138990000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>137380000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>134211000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>114939000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>101569000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>98779000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>96920000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>96352000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>94793000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>90373000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>89706000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>90062000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>89480000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>88571000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>87484000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>92135000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>92773000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>91327000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>91206000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>91774000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>92142000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>91229000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>90594000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>90326000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>88744000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>88513000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>1470061000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1476514000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1487215000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1493280000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1496778000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1507878000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1515090000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1519439000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1518716000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>1527655000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>866161000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>864366000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>863269000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>862831000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>862291000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>861482000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>800984000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>800093000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>800059000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>799130000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>798570000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>798772000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>801228000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>808701000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>823406000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>836927000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>836866000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>838344000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>887020900</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>890597700</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>890202000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>909375000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>911658000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>914810000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>916731000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>916686000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>917582000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>917509000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>919301000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>-16485000000</v>
+      </c>
+      <c r="C36">
         <v>-18479000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-19378000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-18448000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-18288000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-19694000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-21196000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-20956000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-20972000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-25008000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-26380000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-31146000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-16851000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-30908000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-31344000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>-32726000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>-33926000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>-9130000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>-10092000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>-11842000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-12372000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-12180000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-13313000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>-13781000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>-13574000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>-12458000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-12729000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>-13224000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>-14060000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>-10875000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-11701000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>-12961000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>-10412000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>-8464000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>-8900000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>-10049000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>-10470000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>-13676000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>-14767000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>-15078000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>25694000000</v>
+      </c>
+      <c r="C37">
         <v>28066000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>26646000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>25432000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>23653000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>23772000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>23431000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>22959000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>23021000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>22780000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>25775000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>38318000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>38315000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>37263000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>38432000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>38946000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>39385000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>26144000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>17241000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>19680000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>18500000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>18737000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>17281000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>17426000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>16744000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>15558000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>15752000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>15836000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>13350000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>17190000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>16510000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>16712000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>14472000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>14963000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>15110000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>15566000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>15622000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>16567000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>16747000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>18057000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>31914000000</v>
+      </c>
+      <c r="C38">
         <v>33447000000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>31413000000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>31472000000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>31485000000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>31248000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>31482000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>31538000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>31823000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>32781000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>32750000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>46319000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>43252000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>44604000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>45251000000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>45186000000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>45537000000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>39943000000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>28309000000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>27347000000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>27485000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>27260000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>26626000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>24582000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>23901000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>22665000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>22537000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>23051000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>20425000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>22667000000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>22443000000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>21993000000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>19701000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>19998000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>20072000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>20043000000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>20241000000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>21188000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>21656000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>22824000000</v>
       </c>
     </row>
